--- a/preProject/ExcelData/CoursesList.xlsx
+++ b/preProject/ExcelData/CoursesList.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java Material\Sel ojt\offlineExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shri\git\pre-Offline\preProject\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FemaleUsers" sheetId="2" r:id="rId2"/>
+    <sheet name="AllData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Automation Testing</t>
   </si>
@@ -36,13 +38,88 @@
   </si>
   <si>
     <t>Web Development</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Kimaya</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>kiran@gmail.com</t>
+  </si>
+  <si>
+    <t>sagar@gmail.com</t>
+  </si>
+  <si>
+    <t>monica@gmail.com</t>
+  </si>
+  <si>
+    <t>kimaya@gmail.com</t>
+  </si>
+  <si>
+    <t>Java/J2EE</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,16 +133,51 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,13 +185,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -395,4 +543,185 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9898989898</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3">
+        <v>999999999</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1111111111</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3">
+        <v>999999999</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>